--- a/MatStat/Матрица.xlsx
+++ b/MatStat/Матрица.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66C903C-C9AA-4EDB-B842-51A346B836D5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723092FF-CBB5-4C1B-A5B0-4B414506806D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -514,7 +514,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3"/>
@@ -566,7 +566,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="4">
-        <v>2.399</v>
+        <v>2399</v>
       </c>
       <c r="C2" s="4">
         <v>3500</v>
@@ -595,7 +595,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="4">
-        <v>1.7989999999999999</v>
+        <v>1799</v>
       </c>
       <c r="C3" s="4">
         <v>2200</v>
@@ -624,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="4">
-        <v>1.7989999999999999</v>
+        <v>1799</v>
       </c>
       <c r="C4" s="4">
         <v>2100</v>
@@ -653,7 +653,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="4">
-        <v>1.599</v>
+        <v>1599</v>
       </c>
       <c r="C5" s="4">
         <v>2200</v>
@@ -682,7 +682,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="4">
-        <v>1.2989999999999999</v>
+        <v>1299</v>
       </c>
       <c r="C6" s="4">
         <v>3000</v>
@@ -711,7 +711,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="4">
-        <v>1.2989999999999999</v>
+        <v>1299</v>
       </c>
       <c r="C7" s="4">
         <v>3300</v>
@@ -740,7 +740,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="4">
-        <v>1.2989999999999999</v>
+        <v>1299</v>
       </c>
       <c r="C8" s="4">
         <v>2300</v>
@@ -769,7 +769,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="4">
-        <v>1.2989999999999999</v>
+        <v>1299</v>
       </c>
       <c r="C9" s="4">
         <v>1100</v>
@@ -798,7 +798,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="4">
-        <v>1.2989999999999999</v>
+        <v>1299</v>
       </c>
       <c r="C10" s="4">
         <v>2400</v>
@@ -827,7 +827,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="4">
-        <v>1.099</v>
+        <v>1099</v>
       </c>
       <c r="C11" s="4">
         <v>1700</v>
@@ -856,7 +856,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="4">
-        <v>1.099</v>
+        <v>1099</v>
       </c>
       <c r="C12" s="4">
         <v>3000</v>
@@ -1020,7 +1020,7 @@
     <col min="8" max="8" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="85.6">
+    <row r="1" spans="1:9" ht="42.8">
       <c r="A1" s="5"/>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/MatStat/Матрица.xlsx
+++ b/MatStat/Матрица.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723092FF-CBB5-4C1B-A5B0-4B414506806D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A12589A-3AEF-4115-9440-C2002789742C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Исходная матрица" sheetId="1" r:id="rId1"/>
     <sheet name="Корреляция" sheetId="3" r:id="rId2"/>
+    <sheet name="Распределение Стьюдента" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>Модель</t>
   </si>
@@ -99,13 +100,19 @@
   </si>
   <si>
     <t>Задача: прогнозировать цену ноутбука при задании определенных пользователем параметров</t>
+  </si>
+  <si>
+    <t>уровень значимости α</t>
+  </si>
+  <si>
+    <t>число степеней свободы</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,8 +150,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,8 +171,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -201,11 +221,125 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -230,6 +364,37 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,7 +678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1251,4 +1416,962 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DCDDFA-9EE6-4A3A-A64C-B4AB85DD8EEF}">
+  <dimension ref="A1:I40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="11"/>
+      <c r="B1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.95" thickBot="1">
+      <c r="A2" s="12"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" ht="14.95" thickBot="1">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="G3" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="I3" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.95" thickBot="1">
+      <c r="A4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10">
+        <v>3.0779999999999998</v>
+      </c>
+      <c r="F4" s="10">
+        <v>6.3140000000000001</v>
+      </c>
+      <c r="G4" s="10">
+        <v>12.706</v>
+      </c>
+      <c r="H4" s="10">
+        <v>31.821000000000002</v>
+      </c>
+      <c r="I4" s="10">
+        <v>63.656999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.95" thickBot="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="10">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1.8859999999999999</v>
+      </c>
+      <c r="F5" s="10">
+        <v>2.92</v>
+      </c>
+      <c r="G5" s="10">
+        <v>4.3029999999999999</v>
+      </c>
+      <c r="H5" s="10">
+        <v>6.9649999999999999</v>
+      </c>
+      <c r="I5" s="10">
+        <v>9.9250000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.95" thickBot="1">
+      <c r="A6" s="19"/>
+      <c r="B6" s="10">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1.6379999999999999</v>
+      </c>
+      <c r="F6" s="10">
+        <v>2.3530000000000002</v>
+      </c>
+      <c r="G6" s="10">
+        <v>3.1819999999999999</v>
+      </c>
+      <c r="H6" s="10">
+        <v>4.5410000000000004</v>
+      </c>
+      <c r="I6" s="10">
+        <v>5.8410000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.95" thickBot="1">
+      <c r="A7" s="19"/>
+      <c r="B7" s="10">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1.5329999999999999</v>
+      </c>
+      <c r="F7" s="10">
+        <v>2.1320000000000001</v>
+      </c>
+      <c r="G7" s="10">
+        <v>2.7759999999999998</v>
+      </c>
+      <c r="H7" s="10">
+        <v>3.7469999999999999</v>
+      </c>
+      <c r="I7" s="10">
+        <v>4.6040000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.95" thickBot="1">
+      <c r="A8" s="19"/>
+      <c r="B8" s="10">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="E8" s="10">
+        <v>1.476</v>
+      </c>
+      <c r="F8" s="10">
+        <v>2.0150000000000001</v>
+      </c>
+      <c r="G8" s="10">
+        <v>2.5710000000000002</v>
+      </c>
+      <c r="H8" s="10">
+        <v>3.3650000000000002</v>
+      </c>
+      <c r="I8" s="10">
+        <v>4.032</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.95" thickBot="1">
+      <c r="A9" s="19"/>
+      <c r="B9" s="10">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1.44</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1.9430000000000001</v>
+      </c>
+      <c r="G9" s="10">
+        <v>2.4470000000000001</v>
+      </c>
+      <c r="H9" s="10">
+        <v>3.1429999999999998</v>
+      </c>
+      <c r="I9" s="10">
+        <v>3.7069999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.95" thickBot="1">
+      <c r="A10" s="19"/>
+      <c r="B10" s="10">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1.415</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1.895</v>
+      </c>
+      <c r="G10" s="10">
+        <v>2.3650000000000002</v>
+      </c>
+      <c r="H10" s="10">
+        <v>2.9980000000000002</v>
+      </c>
+      <c r="I10" s="10">
+        <v>3.4990000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.95" thickBot="1">
+      <c r="A11" s="19"/>
+      <c r="B11" s="10">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1.397</v>
+      </c>
+      <c r="F11" s="10">
+        <v>1.86</v>
+      </c>
+      <c r="G11" s="10">
+        <v>2.306</v>
+      </c>
+      <c r="H11" s="10">
+        <v>2.8959999999999999</v>
+      </c>
+      <c r="I11" s="10">
+        <v>3.355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.95" thickBot="1">
+      <c r="A12" s="19"/>
+      <c r="B12" s="10">
+        <v>9</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="E12" s="10">
+        <v>1.383</v>
+      </c>
+      <c r="F12" s="10">
+        <v>1.833</v>
+      </c>
+      <c r="G12" s="10">
+        <v>2.262</v>
+      </c>
+      <c r="H12" s="10">
+        <v>2.8210000000000002</v>
+      </c>
+      <c r="I12" s="10">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.95" thickBot="1">
+      <c r="A13" s="19"/>
+      <c r="B13" s="10">
+        <v>10</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.26</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1.3720000000000001</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1.8120000000000001</v>
+      </c>
+      <c r="G13" s="10">
+        <v>2.2280000000000002</v>
+      </c>
+      <c r="H13" s="10">
+        <v>2.7639999999999998</v>
+      </c>
+      <c r="I13" s="10">
+        <v>3.169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.95" thickBot="1">
+      <c r="A14" s="19"/>
+      <c r="B14" s="10">
+        <v>11</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.26</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1.363</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1.796</v>
+      </c>
+      <c r="G14" s="10">
+        <v>2.2010000000000001</v>
+      </c>
+      <c r="H14" s="10">
+        <v>2.718</v>
+      </c>
+      <c r="I14" s="10">
+        <v>3.1059999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.95" thickBot="1">
+      <c r="A15" s="19"/>
+      <c r="B15" s="10">
+        <v>12</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1.3560000000000001</v>
+      </c>
+      <c r="F15" s="10">
+        <v>1.782</v>
+      </c>
+      <c r="G15" s="10">
+        <v>2.1789999999999998</v>
+      </c>
+      <c r="H15" s="10">
+        <v>2.681</v>
+      </c>
+      <c r="I15" s="10">
+        <v>3.0550000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.95" thickBot="1">
+      <c r="A16" s="19"/>
+      <c r="B16" s="10">
+        <v>13</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="E16" s="10">
+        <v>1.35</v>
+      </c>
+      <c r="F16" s="10">
+        <v>1.7709999999999999</v>
+      </c>
+      <c r="G16" s="10">
+        <v>2.16</v>
+      </c>
+      <c r="H16" s="10">
+        <v>2.65</v>
+      </c>
+      <c r="I16" s="10">
+        <v>3.012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.95" thickBot="1">
+      <c r="A17" s="19"/>
+      <c r="B17" s="10">
+        <v>14</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="E17" s="10">
+        <v>1.345</v>
+      </c>
+      <c r="F17" s="10">
+        <v>1.7609999999999999</v>
+      </c>
+      <c r="G17" s="10">
+        <v>2.145</v>
+      </c>
+      <c r="H17" s="10">
+        <v>2.6240000000000001</v>
+      </c>
+      <c r="I17" s="10">
+        <v>2.9769999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.95" thickBot="1">
+      <c r="A18" s="19"/>
+      <c r="B18" s="10">
+        <v>15</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="E18" s="10">
+        <v>1.341</v>
+      </c>
+      <c r="F18" s="10">
+        <v>1.7529999999999999</v>
+      </c>
+      <c r="G18" s="10">
+        <v>2.1309999999999998</v>
+      </c>
+      <c r="H18" s="10">
+        <v>2.6019999999999999</v>
+      </c>
+      <c r="I18" s="10">
+        <v>2.9470000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.95" thickBot="1">
+      <c r="A19" s="19"/>
+      <c r="B19" s="10">
+        <v>16</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0.69</v>
+      </c>
+      <c r="E19" s="10">
+        <v>1.337</v>
+      </c>
+      <c r="F19" s="10">
+        <v>1.746</v>
+      </c>
+      <c r="G19" s="10">
+        <v>2.12</v>
+      </c>
+      <c r="H19" s="10">
+        <v>2.5830000000000002</v>
+      </c>
+      <c r="I19" s="10">
+        <v>2.9209999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.95" thickBot="1">
+      <c r="A20" s="19"/>
+      <c r="B20" s="10">
+        <v>17</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="E20" s="10">
+        <v>1.333</v>
+      </c>
+      <c r="F20" s="10">
+        <v>1.74</v>
+      </c>
+      <c r="G20" s="10">
+        <v>2.11</v>
+      </c>
+      <c r="H20" s="10">
+        <v>2.5670000000000002</v>
+      </c>
+      <c r="I20" s="10">
+        <v>2.8980000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.95" thickBot="1">
+      <c r="A21" s="19"/>
+      <c r="B21" s="10">
+        <v>18</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="E21" s="10">
+        <v>1.33</v>
+      </c>
+      <c r="F21" s="10">
+        <v>1.734</v>
+      </c>
+      <c r="G21" s="10">
+        <v>2.101</v>
+      </c>
+      <c r="H21" s="10">
+        <v>2.552</v>
+      </c>
+      <c r="I21" s="10">
+        <v>2.8780000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.95" thickBot="1">
+      <c r="A22" s="19"/>
+      <c r="B22" s="10">
+        <v>19</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="E22" s="10">
+        <v>1.3280000000000001</v>
+      </c>
+      <c r="F22" s="10">
+        <v>1.7290000000000001</v>
+      </c>
+      <c r="G22" s="10">
+        <v>2.093</v>
+      </c>
+      <c r="H22" s="10">
+        <v>2.5390000000000001</v>
+      </c>
+      <c r="I22" s="10">
+        <v>2.8610000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.95" thickBot="1">
+      <c r="A23" s="19"/>
+      <c r="B23" s="10">
+        <v>20</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="E23" s="10">
+        <v>1.325</v>
+      </c>
+      <c r="F23" s="10">
+        <v>1.7250000000000001</v>
+      </c>
+      <c r="G23" s="10">
+        <v>2.0859999999999999</v>
+      </c>
+      <c r="H23" s="10">
+        <v>2.528</v>
+      </c>
+      <c r="I23" s="10">
+        <v>2.8450000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.95" thickBot="1">
+      <c r="A24" s="19"/>
+      <c r="B24" s="10">
+        <v>21</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="E24" s="10">
+        <v>1.323</v>
+      </c>
+      <c r="F24" s="10">
+        <v>1.7210000000000001</v>
+      </c>
+      <c r="G24" s="10">
+        <v>2.08</v>
+      </c>
+      <c r="H24" s="10">
+        <v>2.5179999999999998</v>
+      </c>
+      <c r="I24" s="10">
+        <v>2.831</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14.95" thickBot="1">
+      <c r="A25" s="19"/>
+      <c r="B25" s="10">
+        <v>22</v>
+      </c>
+      <c r="C25" s="10">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="E25" s="10">
+        <v>1.321</v>
+      </c>
+      <c r="F25" s="10">
+        <v>1.7170000000000001</v>
+      </c>
+      <c r="G25" s="10">
+        <v>2.0739999999999998</v>
+      </c>
+      <c r="H25" s="10">
+        <v>2.508</v>
+      </c>
+      <c r="I25" s="10">
+        <v>2.819</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.95" thickBot="1">
+      <c r="A26" s="19"/>
+      <c r="B26" s="10">
+        <v>23</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="E26" s="10">
+        <v>1.319</v>
+      </c>
+      <c r="F26" s="10">
+        <v>1.714</v>
+      </c>
+      <c r="G26" s="10">
+        <v>2.069</v>
+      </c>
+      <c r="H26" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="I26" s="10">
+        <v>2.8069999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14.95" thickBot="1">
+      <c r="A27" s="19"/>
+      <c r="B27" s="10">
+        <v>24</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="E27" s="10">
+        <v>1.3180000000000001</v>
+      </c>
+      <c r="F27" s="10">
+        <v>1.7110000000000001</v>
+      </c>
+      <c r="G27" s="10">
+        <v>2.0640000000000001</v>
+      </c>
+      <c r="H27" s="10">
+        <v>2.492</v>
+      </c>
+      <c r="I27" s="10">
+        <v>2.7970000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="14.95" thickBot="1">
+      <c r="A28" s="19"/>
+      <c r="B28" s="10">
+        <v>25</v>
+      </c>
+      <c r="C28" s="10">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="E28" s="10">
+        <v>1.3160000000000001</v>
+      </c>
+      <c r="F28" s="10">
+        <v>1.708</v>
+      </c>
+      <c r="G28" s="10">
+        <v>2.06</v>
+      </c>
+      <c r="H28" s="10">
+        <v>2.4849999999999999</v>
+      </c>
+      <c r="I28" s="10">
+        <v>2.7869999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14.95" thickBot="1">
+      <c r="A29" s="19"/>
+      <c r="B29" s="10">
+        <v>26</v>
+      </c>
+      <c r="C29" s="10">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="D29" s="10">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="E29" s="10">
+        <v>1.3149999999999999</v>
+      </c>
+      <c r="F29" s="10">
+        <v>1.706</v>
+      </c>
+      <c r="G29" s="10">
+        <v>2.056</v>
+      </c>
+      <c r="H29" s="10">
+        <v>2.4790000000000001</v>
+      </c>
+      <c r="I29" s="10">
+        <v>2.7789999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14.95" thickBot="1">
+      <c r="A30" s="19"/>
+      <c r="B30" s="10">
+        <v>27</v>
+      </c>
+      <c r="C30" s="10">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="E30" s="10">
+        <v>1.3140000000000001</v>
+      </c>
+      <c r="F30" s="10">
+        <v>1.7030000000000001</v>
+      </c>
+      <c r="G30" s="10">
+        <v>2.052</v>
+      </c>
+      <c r="H30" s="10">
+        <v>2.4729999999999999</v>
+      </c>
+      <c r="I30" s="10">
+        <v>2.7709999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14.95" thickBot="1">
+      <c r="A31" s="19"/>
+      <c r="B31" s="10">
+        <v>28</v>
+      </c>
+      <c r="C31" s="10">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="E31" s="10">
+        <v>1.3129999999999999</v>
+      </c>
+      <c r="F31" s="10">
+        <v>1.7010000000000001</v>
+      </c>
+      <c r="G31" s="10">
+        <v>2.048</v>
+      </c>
+      <c r="H31" s="10">
+        <v>2.4670000000000001</v>
+      </c>
+      <c r="I31" s="10">
+        <v>2.7629999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="14.95" thickBot="1">
+      <c r="A32" s="19"/>
+      <c r="B32" s="10">
+        <v>29</v>
+      </c>
+      <c r="C32" s="10">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="E32" s="10">
+        <v>1.3109999999999999</v>
+      </c>
+      <c r="F32" s="10">
+        <v>1.6990000000000001</v>
+      </c>
+      <c r="G32" s="10">
+        <v>2.0449999999999999</v>
+      </c>
+      <c r="H32" s="10">
+        <v>2.4620000000000002</v>
+      </c>
+      <c r="I32" s="10">
+        <v>2.7559999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="14.95" thickBot="1">
+      <c r="A33" s="19"/>
+      <c r="B33" s="10">
+        <v>30</v>
+      </c>
+      <c r="C33" s="10">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="E33" s="10">
+        <v>1.31</v>
+      </c>
+      <c r="F33" s="10">
+        <v>1.6970000000000001</v>
+      </c>
+      <c r="G33" s="10">
+        <v>2.0419999999999998</v>
+      </c>
+      <c r="H33" s="10">
+        <v>2.4569999999999999</v>
+      </c>
+      <c r="I33" s="10">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="14.95" thickBot="1">
+      <c r="A34" s="19"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="1:9" ht="14.95" thickBot="1">
+      <c r="A35" s="19"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="1:9" ht="14.95" thickBot="1">
+      <c r="A36" s="19"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+    </row>
+    <row r="37" spans="1:9" ht="14.95" thickBot="1">
+      <c r="A37" s="19"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+    </row>
+    <row r="38" spans="1:9" ht="14.95" thickBot="1">
+      <c r="A38" s="19"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+    </row>
+    <row r="39" spans="1:9" ht="14.95" thickBot="1">
+      <c r="A39" s="19"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+    </row>
+    <row r="40" spans="1:9" ht="14.95" thickBot="1">
+      <c r="A40" s="12"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:H2"/>
+    <mergeCell ref="A4:A40"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>